--- a/data/evaluation/evaluation_South_Winter_Celery.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Celery.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4490.159877718242</v>
+        <v>4595.166409138841</v>
       </c>
       <c r="C4" t="n">
-        <v>36875973.84417299</v>
+        <v>40367190.5675676</v>
       </c>
       <c r="D4" t="n">
-        <v>6072.559085276403</v>
+        <v>6353.517967832278</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008528790307761214</v>
+        <v>-0.08533831358673827</v>
       </c>
     </row>
     <row r="5">
